--- a/数据整理/stocks/其他/PXD-Pioneer自然资源公司.xlsx
+++ b/数据整理/stocks/其他/PXD-Pioneer自然资源公司.xlsx
@@ -1,114 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>162719</t>
-  </si>
-  <si>
-    <t>006679</t>
-  </si>
-  <si>
-    <t>004243</t>
-  </si>
-  <si>
-    <t>006680</t>
-  </si>
-  <si>
-    <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
-  </si>
-  <si>
-    <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
-  </si>
-  <si>
-    <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
-  </si>
-  <si>
-    <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
-  </si>
-  <si>
-    <t>5.08</t>
-  </si>
-  <si>
-    <t>2.01</t>
-  </si>
-  <si>
-    <t>93.82</t>
-  </si>
-  <si>
-    <t>3.98</t>
-  </si>
-  <si>
-    <t>0.2022</t>
-  </si>
-  <si>
-    <t>0.0800</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -433,141 +446,417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/PXD-Pioneer自然资源公司.xlsx
+++ b/数据整理/stocks/其他/PXD-Pioneer自然资源公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/PXD-Pioneer自然资源公司.xlsx
+++ b/数据整理/stocks/其他/PXD-Pioneer自然资源公司.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -868,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,17 +880,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -899,14 +920,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.79</v>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3174</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -915,13 +958,195 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/PXD-Pioneer自然资源公司.xlsx
+++ b/数据整理/stocks/其他/PXD-Pioneer自然资源公司.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1077,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,17 +1089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1108,14 +1129,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.75</v>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9352</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1124,14 +1167,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.79</v>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9352</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1140,13 +1205,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2999</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2999</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/PXD-Pioneer自然资源公司.xlsx
+++ b/数据整理/stocks/其他/PXD-Pioneer自然资源公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,17 +1298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1317,14 +1338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.47</v>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5065</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1333,14 +1376,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.75</v>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5065</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1349,14 +1414,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.79</v>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8722</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1365,13 +1452,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8722</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4921</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4921</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3227</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/PXD-Pioneer自然资源公司.xlsx
+++ b/数据整理/stocks/其他/PXD-Pioneer自然资源公司.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,205 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162719</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2022</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.06</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006679</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2022</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.47</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004243</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0800</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006680</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0800</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -663,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -714,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2863</t>
+          <t>1.5065</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -752,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2863</t>
+          <t>1.5065</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -790,36 +698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>162411</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>华宝油气(QDII)人民币A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>41.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1092</t>
+          <t>0.8722</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -828,36 +736,150 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8722</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>004243</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1092</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4921</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4921</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3227</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -922,32 +944,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3174</t>
+          <t>0.9352</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -960,32 +982,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1832</t>
+          <t>0.9352</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1008,22 +1030,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1246</t>
+          <t>0.2999</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1046,22 +1068,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1246</t>
+          <t>0.2999</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1130,32 +1152,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9352</t>
+          <t>0.3174</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1168,32 +1190,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9352</t>
+          <t>0.1832</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1216,22 +1238,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2999</t>
+          <t>0.1246</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1254,22 +1276,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2999</t>
+          <t>0.1246</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1287,7 +1309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1308,7 +1330,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1338,36 +1360,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5065</t>
+          <t>0.2863</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1376,36 +1398,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5065</t>
+          <t>0.2863</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1414,36 +1436,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>162411</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝油气(QDII)人民币A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>41.73</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8722</t>
+          <t>0.1092</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1452,150 +1474,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001481</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝油气(QDII)美元</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>41.73</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8722</t>
+          <t>0.1092</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004243</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4921</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006680</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4921</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007844</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)人民币C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>15.44</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3227</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1609,112 +1517,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.06</v>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.47</v>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.75</v>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5600000000000001</v>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/PXD-Pioneer自然资源公司.xlsx
+++ b/数据整理/stocks/其他/PXD-Pioneer自然资源公司.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>6.06</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>2.47</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.75</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>
@@ -566,6 +583,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7507</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7507</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3789</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-11.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-0.7514</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -880,214 +1105,6 @@
       </c>
       <c r="H8" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006679</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9352</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162719</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.75</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9352</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006680</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2999</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004243</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2999</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1152,32 +1169,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3174</t>
+          <t>0.9352</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1190,32 +1207,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1832</t>
+          <t>0.9352</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1238,22 +1255,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1246</t>
+          <t>0.2999</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1276,22 +1293,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1246</t>
+          <t>0.2999</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1330,7 +1347,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1360,36 +1377,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2863</t>
+          <t>0.3174</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1398,36 +1415,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2863</t>
+          <t>0.1832</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1446,26 +1463,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1092</t>
+          <t>0.1246</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1484,26 +1501,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1092</t>
+          <t>0.1246</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1512,6 +1529,214 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/PXD-Pioneer自然资源公司.xlsx
+++ b/数据整理/stocks/其他/PXD-Pioneer自然资源公司.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>6.06</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>2.47</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.75</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>
@@ -649,22 +666,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.73</t>
+          <t>11.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>90.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7507</t>
+          <t>0.7013</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -687,22 +704,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.73</t>
+          <t>11.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>90.17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7507</t>
+          <t>0.7013</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -725,22 +742,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>90.17</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3789</t>
+          <t>0.3442</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -763,22 +780,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-11.74</t>
+          <t>-11.33</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>90.17</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.7514</t>
+          <t>-0.7013</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -791,6 +808,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7507</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7507</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3789</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-11.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-0.7514</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1105,214 +1330,6 @@
       </c>
       <c r="H8" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006679</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9352</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162719</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.75</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9352</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006680</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2999</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004243</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2999</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1377,32 +1394,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3174</t>
+          <t>0.9352</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1415,32 +1432,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1832</t>
+          <t>0.9352</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1463,22 +1480,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1246</t>
+          <t>0.2999</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1501,22 +1518,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1246</t>
+          <t>0.2999</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1555,7 +1572,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1585,36 +1602,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2863</t>
+          <t>0.3174</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1623,36 +1640,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2863</t>
+          <t>0.1832</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1671,26 +1688,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1092</t>
+          <t>0.1246</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1709,26 +1726,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1092</t>
+          <t>0.1246</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1737,6 +1754,214 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
